--- a/Mycat指南.xlsx
+++ b/Mycat指南.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E8CAE-0A12-4BF5-BE9B-CB621684643D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>https://blog.csdn.net/fighterandknight/article/details/80768375</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,10 +69,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BCB9A040-CF15-4BD0-B4D1-E1C33A792EF2}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +374,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>